--- a/Spreadsheet Applications/Creating PivotCharts and PivotTables/Fire Police.xlsx
+++ b/Spreadsheet Applications/Creating PivotCharts and PivotTables/Fire Police.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Creating PivotCharts and PivotTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_72641960113FAEEEB7B8461D25F0FD300C52B230" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA3BC75-BA04-40C2-8503-A635918FA2AF}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_72641960113FAEEEB7B8461D25F0FD300C52B230" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0D3E8B-6835-471C-97B4-3780B98EC2B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fire and Police Calls" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -181,6 +181,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,14 +215,14 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,6 +1159,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1165,7 +1167,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1814,8 +1815,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Fire/Police">
@@ -1838,7 +1839,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1892,8 +1893,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Classification">
@@ -1916,7 +1917,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2562,7 +2563,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19B82FD1-9E09-4094-8FB1-3B4FDBAF543A}" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19B82FD1-9E09-4094-8FB1-3B4FDBAF543A}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -2653,7 +2654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19B82FD1-9E09-4094-8FB1-3B4FDBAF543A}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19B82FD1-9E09-4094-8FB1-3B4FDBAF543A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -2753,7 +2754,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19B82FD1-9E09-4094-8FB1-3B4FDBAF543A}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19B82FD1-9E09-4094-8FB1-3B4FDBAF543A}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField name="1st Quarter Fire &amp; Police Calls" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -3259,8 +3260,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,13 +3277,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4747,19 +4748,18 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00268C35-DF9A-41A6-9D38-FC7D34C501FB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5125,8 +5125,10 @@
   </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5154,7 +5156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE703E22-44BB-4F50-8413-DF3D3D888586}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5165,7 +5169,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
@@ -5173,15 +5177,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
@@ -5195,77 +5199,81 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2334</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>989</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3323</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2720</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>795</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3515</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1024</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>238</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1262</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1524</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>387</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1911</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>7602</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>2409</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>10011</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5273,8 +5281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD01475-5177-4659-A1B0-AC3BD84AAB38}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5287,7 +5295,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
@@ -5295,15 +5303,15 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
@@ -5320,138 +5328,139 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>10679</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>499</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>731</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>11909</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>14937</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>699</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>586</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>16222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>14451</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>634</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>558</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>15643</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>14579</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>881</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>617</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>16077</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>13887</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>763</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>600</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>15250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>14277</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>835</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>825</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>15937</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>82810</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>4311</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>3917</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>91038</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4506348F-1116-4C75-9140-517C51443E7C}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5465,7 +5474,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
@@ -5473,15 +5482,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
@@ -5495,108 +5504,110 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>499</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>731</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1230</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>699</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>586</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>634</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>558</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>881</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>617</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1498</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>763</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>600</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1363</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>835</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>825</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1660</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>4311</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>3917</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>8228</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
